--- a/evaluation-template.xlsx
+++ b/evaluation-template.xlsx
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Samples:</t>
   </si>
   <si>
-    <t xml:space="preserve">quenshing with MeCN/H2O=6:4 +0.1% FA (950 µL and 50 µL sample)</t>
+    <t xml:space="preserve">quenching with MeCN/H2O=6:4 +0.1% FA (950 µL and 50 µL sample)</t>
   </si>
   <si>
     <t xml:space="preserve">Concentration of target (mM):</t>
@@ -731,7 +731,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -820,18 +820,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,10 +861,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,7 +952,7 @@
   <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,9 +1119,9 @@
       <c r="U16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
@@ -1145,57 +1133,57 @@
         <f aca="false">(C17/B17)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="25" t="e">
+      <c r="J17" s="23" t="e">
         <f aca="false">$D$17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="26" t="e">
+      <c r="K17" s="24" t="e">
         <f aca="false">$D$18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="26" t="e">
+      <c r="L17" s="24" t="e">
         <f aca="false">$D$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="26" t="e">
+      <c r="M17" s="24" t="e">
         <f aca="false">$D$20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="26" t="e">
+      <c r="N17" s="24" t="e">
         <f aca="false">$D$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="26" t="e">
+      <c r="O17" s="24" t="e">
         <f aca="false">$D$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="26" t="e">
+      <c r="P17" s="24" t="e">
         <f aca="false">$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="26" t="e">
+      <c r="Q17" s="24" t="e">
         <f aca="false">$D$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="26" t="e">
+      <c r="R17" s="24" t="e">
         <f aca="false">$D$25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="26" t="e">
+      <c r="S17" s="24" t="e">
         <f aca="false">$D$26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="26" t="e">
+      <c r="T17" s="24" t="e">
         <f aca="false">$D$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="27" t="e">
+      <c r="U17" s="25" t="e">
         <f aca="false">$D$28</f>
         <v>#DIV/0!</v>
       </c>
@@ -1210,57 +1198,57 @@
         <f aca="false">(C18/B18)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="28" t="e">
+      <c r="J18" s="26" t="e">
         <f aca="false">$D$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="29" t="e">
+      <c r="K18" s="27" t="e">
         <f aca="false">$D$30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="29" t="e">
+      <c r="L18" s="27" t="e">
         <f aca="false">$D$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="29" t="e">
+      <c r="M18" s="27" t="e">
         <f aca="false">$D$32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="29" t="e">
+      <c r="N18" s="27" t="e">
         <f aca="false">$D$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="29" t="e">
+      <c r="O18" s="27" t="e">
         <f aca="false">$D$34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="29" t="e">
+      <c r="P18" s="27" t="e">
         <f aca="false">$D$35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="29" t="e">
+      <c r="Q18" s="27" t="e">
         <f aca="false">$D$36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="29" t="e">
+      <c r="R18" s="27" t="e">
         <f aca="false">$D$37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="29" t="e">
+      <c r="S18" s="27" t="e">
         <f aca="false">$D$38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T18" s="29" t="e">
+      <c r="T18" s="27" t="e">
         <f aca="false">$D$39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="30" t="e">
+      <c r="U18" s="28" t="e">
         <f aca="false">$D$40</f>
         <v>#DIV/0!</v>
       </c>
@@ -1275,57 +1263,57 @@
         <f aca="false">(C19/B19)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="28" t="e">
+      <c r="J19" s="26" t="e">
         <f aca="false">$D$41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="29" t="e">
+      <c r="K19" s="27" t="e">
         <f aca="false">$D$42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="29" t="e">
+      <c r="L19" s="27" t="e">
         <f aca="false">$D$43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="29" t="e">
+      <c r="M19" s="27" t="e">
         <f aca="false">$D$44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="29" t="e">
+      <c r="N19" s="27" t="e">
         <f aca="false">$D$45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="29" t="e">
+      <c r="O19" s="27" t="e">
         <f aca="false">$D$46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="29" t="e">
+      <c r="P19" s="27" t="e">
         <f aca="false">$D$47</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="29" t="e">
+      <c r="Q19" s="27" t="e">
         <f aca="false">$D$48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" s="29" t="e">
+      <c r="R19" s="27" t="e">
         <f aca="false">$D$49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="29" t="e">
+      <c r="S19" s="27" t="e">
         <f aca="false">$D$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="29" t="e">
+      <c r="T19" s="27" t="e">
         <f aca="false">$D$51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" s="30" t="e">
+      <c r="U19" s="28" t="e">
         <f aca="false">$D$52</f>
         <v>#DIV/0!</v>
       </c>
@@ -1340,57 +1328,57 @@
         <f aca="false">(C20/B20)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="28" t="e">
+      <c r="J20" s="26" t="e">
         <f aca="false">$D$53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="29" t="e">
+      <c r="K20" s="27" t="e">
         <f aca="false">$D$54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="29" t="e">
+      <c r="L20" s="27" t="e">
         <f aca="false">$D$55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="29" t="e">
+      <c r="M20" s="27" t="e">
         <f aca="false">$D$56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="29" t="e">
+      <c r="N20" s="27" t="e">
         <f aca="false">$D$57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="29" t="e">
+      <c r="O20" s="27" t="e">
         <f aca="false">$D$58</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="29" t="e">
+      <c r="P20" s="27" t="e">
         <f aca="false">$D$59</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="29" t="e">
+      <c r="Q20" s="27" t="e">
         <f aca="false">$D$60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="29" t="e">
+      <c r="R20" s="27" t="e">
         <f aca="false">$D$61</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="29" t="e">
+      <c r="S20" s="27" t="e">
         <f aca="false">$D$62</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="29" t="e">
+      <c r="T20" s="27" t="e">
         <f aca="false">$D$63</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U20" s="30" t="e">
+      <c r="U20" s="28" t="e">
         <f aca="false">$D$64</f>
         <v>#DIV/0!</v>
       </c>
@@ -1405,57 +1393,57 @@
         <f aca="false">(C21/B21)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="28" t="e">
+      <c r="J21" s="26" t="e">
         <f aca="false">$D$65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="29" t="e">
+      <c r="K21" s="27" t="e">
         <f aca="false">$D$66</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="29" t="e">
+      <c r="L21" s="27" t="e">
         <f aca="false">$D$67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="29" t="e">
+      <c r="M21" s="27" t="e">
         <f aca="false">$D$68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="29" t="e">
+      <c r="N21" s="27" t="e">
         <f aca="false">$D$69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="29" t="e">
+      <c r="O21" s="27" t="e">
         <f aca="false">$D$70</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="29" t="e">
+      <c r="P21" s="27" t="e">
         <f aca="false">$D$71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="29" t="e">
+      <c r="Q21" s="27" t="e">
         <f aca="false">$D$72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="29" t="e">
+      <c r="R21" s="27" t="e">
         <f aca="false">$D$73</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="29" t="e">
+      <c r="S21" s="27" t="e">
         <f aca="false">$D$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="29" t="e">
+      <c r="T21" s="27" t="e">
         <f aca="false">$D$75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="30" t="e">
+      <c r="U21" s="28" t="e">
         <f aca="false">$D$76</f>
         <v>#DIV/0!</v>
       </c>
@@ -1470,57 +1458,57 @@
         <f aca="false">(C22/B22)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="28" t="e">
+      <c r="J22" s="26" t="e">
         <f aca="false">$D$77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="29" t="e">
+      <c r="K22" s="27" t="e">
         <f aca="false">$D$78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="29" t="e">
+      <c r="L22" s="27" t="e">
         <f aca="false">$D$79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="29" t="e">
+      <c r="M22" s="27" t="e">
         <f aca="false">$D$80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="29" t="e">
+      <c r="N22" s="27" t="e">
         <f aca="false">$D$81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="29" t="e">
+      <c r="O22" s="27" t="e">
         <f aca="false">$D$82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="29" t="e">
+      <c r="P22" s="27" t="e">
         <f aca="false">$D$83</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="29" t="e">
+      <c r="Q22" s="27" t="e">
         <f aca="false">$D$84</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="29" t="e">
+      <c r="R22" s="27" t="e">
         <f aca="false">$D$85</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="29" t="e">
+      <c r="S22" s="27" t="e">
         <f aca="false">$D$86</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="29" t="e">
+      <c r="T22" s="27" t="e">
         <f aca="false">$D$87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="30" t="e">
+      <c r="U22" s="28" t="e">
         <f aca="false">$D$88</f>
         <v>#DIV/0!</v>
       </c>
@@ -1535,57 +1523,57 @@
         <f aca="false">(C23/B23)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="28" t="e">
+      <c r="J23" s="26" t="e">
         <f aca="false">$D$89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="29" t="e">
+      <c r="K23" s="27" t="e">
         <f aca="false">$D$90</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="29" t="e">
+      <c r="L23" s="27" t="e">
         <f aca="false">$D$91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="29" t="e">
+      <c r="M23" s="27" t="e">
         <f aca="false">$D$92</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="29" t="e">
+      <c r="N23" s="27" t="e">
         <f aca="false">$D$93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="29" t="e">
+      <c r="O23" s="27" t="e">
         <f aca="false">$D$94</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="29" t="e">
+      <c r="P23" s="27" t="e">
         <f aca="false">$D$95</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="29" t="e">
+      <c r="Q23" s="27" t="e">
         <f aca="false">$D$96</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="29" t="e">
+      <c r="R23" s="27" t="e">
         <f aca="false">$D$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="29" t="e">
+      <c r="S23" s="27" t="e">
         <f aca="false">$D$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="29" t="e">
+      <c r="T23" s="27" t="e">
         <f aca="false">$D$99</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="30" t="e">
+      <c r="U23" s="28" t="e">
         <f aca="false">$D$100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1600,57 +1588,57 @@
         <f aca="false">(C24/B24)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="31" t="e">
+      <c r="J24" s="29" t="e">
         <f aca="false">$D$101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="32" t="e">
+      <c r="K24" s="30" t="e">
         <f aca="false">$D$102</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="32" t="e">
+      <c r="L24" s="30" t="e">
         <f aca="false">$D$103</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="32" t="e">
+      <c r="M24" s="30" t="e">
         <f aca="false">$D$104</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="32" t="e">
+      <c r="N24" s="30" t="e">
         <f aca="false">$D$105</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="32" t="e">
+      <c r="O24" s="30" t="e">
         <f aca="false">$D$106</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="32" t="e">
+      <c r="P24" s="30" t="e">
         <f aca="false">$D$107</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="32" t="e">
+      <c r="Q24" s="30" t="e">
         <f aca="false">$D$108</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="32" t="e">
+      <c r="R24" s="30" t="e">
         <f aca="false">$D$109</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="32" t="e">
+      <c r="S24" s="30" t="e">
         <f aca="false">$D$110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="32" t="e">
+      <c r="T24" s="30" t="e">
         <f aca="false">$D$111</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="33" t="e">
+      <c r="U24" s="31" t="e">
         <f aca="false">$D$112</f>
         <v>#DIV/0!</v>
       </c>
@@ -1665,11 +1653,11 @@
         <f aca="false">(C25/B25)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="34"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
@@ -1681,11 +1669,11 @@
         <f aca="false">(C26/B26)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="34"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
@@ -1697,11 +1685,11 @@
         <f aca="false">(C27/B27)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
@@ -1713,11 +1701,11 @@
         <f aca="false">(C28/B28)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="34"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
@@ -1729,9 +1717,9 @@
         <f aca="false">(C29/B29)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,11 +1732,11 @@
         <f aca="false">(C30/B30)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
@@ -1760,9 +1748,9 @@
         <f aca="false">(C31/B31)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
@@ -1774,9 +1762,9 @@
         <f aca="false">(C32/B32)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
@@ -1788,9 +1776,9 @@
         <f aca="false">(C33/B33)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
@@ -1802,9 +1790,9 @@
         <f aca="false">(C34/B34)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
@@ -1816,9 +1804,9 @@
         <f aca="false">(C35/B35)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
@@ -1830,9 +1818,9 @@
         <f aca="false">(C36/B36)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
@@ -1844,9 +1832,6 @@
         <f aca="false">(C37/B37)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
@@ -1858,9 +1843,6 @@
         <f aca="false">(C38/B38)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
@@ -1872,9 +1854,6 @@
         <f aca="false">(C39/B39)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
@@ -1886,9 +1865,6 @@
         <f aca="false">(C40/B40)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
@@ -1900,9 +1876,6 @@
         <f aca="false">(C41/B41)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
@@ -1914,9 +1887,6 @@
         <f aca="false">(C42/B42)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
@@ -1928,9 +1898,6 @@
         <f aca="false">(C43/B43)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
@@ -1942,9 +1909,6 @@
         <f aca="false">(C44/B44)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
@@ -1956,9 +1920,6 @@
         <f aca="false">(C45/B45)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
@@ -1970,9 +1931,6 @@
         <f aca="false">(C46/B46)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
@@ -1984,9 +1942,6 @@
         <f aca="false">(C47/B47)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
@@ -1998,9 +1953,6 @@
         <f aca="false">(C48/B48)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
@@ -2012,9 +1964,6 @@
         <f aca="false">(C49/B49)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
@@ -2026,9 +1975,6 @@
         <f aca="false">(C50/B50)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
@@ -2040,9 +1986,6 @@
         <f aca="false">(C51/B51)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
@@ -2054,9 +1997,6 @@
         <f aca="false">(C52/B52)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
@@ -2068,9 +2008,6 @@
         <f aca="false">(C53/B53)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
@@ -2082,9 +2019,6 @@
         <f aca="false">(C54/B54)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
@@ -2096,9 +2030,6 @@
         <f aca="false">(C55/B55)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
@@ -2110,9 +2041,6 @@
         <f aca="false">(C56/B56)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
@@ -2124,9 +2052,6 @@
         <f aca="false">(C57/B57)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
@@ -2138,9 +2063,6 @@
         <f aca="false">(C58/B58)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
@@ -2152,9 +2074,6 @@
         <f aca="false">(C59/B59)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
@@ -2166,9 +2085,6 @@
         <f aca="false">(C60/B60)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
@@ -2180,9 +2096,6 @@
         <f aca="false">(C61/B61)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
@@ -2194,9 +2107,6 @@
         <f aca="false">(C62/B62)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
@@ -2208,9 +2118,6 @@
         <f aca="false">(C63/B63)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
@@ -2222,9 +2129,6 @@
         <f aca="false">(C64/B64)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
@@ -2236,9 +2140,6 @@
         <f aca="false">(C65/B65)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
@@ -2250,9 +2151,6 @@
         <f aca="false">(C66/B66)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
@@ -2264,9 +2162,6 @@
         <f aca="false">(C67/B67)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
@@ -2278,9 +2173,6 @@
         <f aca="false">(C68/B68)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
@@ -2756,12 +2648,12 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37" t="e">
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34" t="e">
         <f aca="false">(C112/B112)*90/$B$11</f>
         <v>#DIV/0!</v>
       </c>
